--- a/Asp_post_salvage/steady-state/143B-H1299_Metformin/H1299_volume/merged_results_H1299.xlsx
+++ b/Asp_post_salvage/steady-state/143B-H1299_Metformin/H1299_volume/merged_results_H1299.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/Asp_post_salvage/steady-state/H1299_volume/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/Asp_post_salvage/steady-state/143B-H1299_Metformin/H1299_volume/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA97230-2796-DC4C-9075-4BAAD64D741C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A642960D-EB7E-C344-96FE-80787EB73833}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="940" windowWidth="14040" windowHeight="16480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="220" yWindow="940" windowWidth="25020" windowHeight="17060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CC_diameter" sheetId="3" r:id="rId1"/>
@@ -7439,8 +7439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10:P93"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
